--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H2">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I2">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J2">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N2">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q2">
-        <v>87.68752442179111</v>
+        <v>812.2501510966981</v>
       </c>
       <c r="R2">
-        <v>87.68752442179111</v>
+        <v>7310.251359870283</v>
       </c>
       <c r="S2">
-        <v>0.1222545027702724</v>
+        <v>0.3773618891004513</v>
       </c>
       <c r="T2">
-        <v>0.1222545027702724</v>
+        <v>0.3773618891004513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H3">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I3">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J3">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N3">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q3">
-        <v>379.9855801925563</v>
+        <v>823.8769506842563</v>
       </c>
       <c r="R3">
-        <v>379.9855801925563</v>
+        <v>7414.892556158306</v>
       </c>
       <c r="S3">
-        <v>0.5297783062372553</v>
+        <v>0.3827635637577342</v>
       </c>
       <c r="T3">
-        <v>0.5297783062372553</v>
+        <v>0.3827635637577342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H4">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I4">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J4">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q4">
-        <v>207.9143382356533</v>
+        <v>451.1350599513561</v>
       </c>
       <c r="R4">
-        <v>207.9143382356533</v>
+        <v>4060.215539562205</v>
       </c>
       <c r="S4">
-        <v>0.2898754892148982</v>
+        <v>0.2095920551480721</v>
       </c>
       <c r="T4">
-        <v>0.2898754892148982</v>
+        <v>0.2095920551480721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H5">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I5">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J5">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N5">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q5">
-        <v>2.123358943760818</v>
+        <v>9.643062215463001</v>
       </c>
       <c r="R5">
-        <v>2.123358943760818</v>
+        <v>86.787559939167</v>
       </c>
       <c r="S5">
-        <v>0.002960400508327945</v>
+        <v>0.00448005355176239</v>
       </c>
       <c r="T5">
-        <v>0.002960400508327945</v>
+        <v>0.00448005355176239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H6">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I6">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J6">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N6">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q6">
-        <v>9.201374830938887</v>
+        <v>9.781095987002669</v>
       </c>
       <c r="R6">
-        <v>9.201374830938887</v>
+        <v>88.02986388302401</v>
       </c>
       <c r="S6">
-        <v>0.01282861515565586</v>
+        <v>0.004544182422304968</v>
       </c>
       <c r="T6">
-        <v>0.01282861515565586</v>
+        <v>0.004544182422304968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H7">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I7">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J7">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q7">
-        <v>5.034658835904772</v>
+        <v>5.355891217519334</v>
       </c>
       <c r="R7">
-        <v>5.034658835904772</v>
+        <v>48.20302095767401</v>
       </c>
       <c r="S7">
-        <v>0.007019353284975815</v>
+        <v>0.002488284212604596</v>
       </c>
       <c r="T7">
-        <v>0.007019353284975815</v>
+        <v>0.002488284212604597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H8">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I8">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J8">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N8">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q8">
-        <v>3.284723273943081</v>
+        <v>15.722014205683</v>
       </c>
       <c r="R8">
-        <v>3.284723273943081</v>
+        <v>141.498127851147</v>
       </c>
       <c r="S8">
-        <v>0.004579582024259525</v>
+        <v>0.007304263314829914</v>
       </c>
       <c r="T8">
-        <v>0.004579582024259525</v>
+        <v>0.007304263314829915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H9">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I9">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J9">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N9">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q9">
-        <v>14.23403713642849</v>
+        <v>15.94706397395378</v>
       </c>
       <c r="R9">
-        <v>14.23403713642849</v>
+        <v>143.523575765584</v>
       </c>
       <c r="S9">
-        <v>0.01984518486526241</v>
+        <v>0.00740881879639137</v>
       </c>
       <c r="T9">
-        <v>0.01984518486526241</v>
+        <v>0.007408818796391371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H10">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I10">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J10">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q10">
-        <v>7.788349258260133</v>
+        <v>8.732225917914889</v>
       </c>
       <c r="R10">
-        <v>7.788349258260133</v>
+        <v>78.59003326123401</v>
       </c>
       <c r="S10">
-        <v>0.01085856593909261</v>
+        <v>0.004056889695849365</v>
       </c>
       <c r="T10">
-        <v>0.01085856593909261</v>
+        <v>0.004056889695849365</v>
       </c>
     </row>
   </sheetData>
